--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -137,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -303,11 +304,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.84"/>
@@ -411,10 +412,10 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="E8" s="5" t="n">
         <v>44393.25</v>
       </c>
